--- a/test — копия.xlsx
+++ b/test — копия.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="114">
   <si>
     <t>РАСПИСАНИЕ       НА     СРЕДУ     18.02.26        I СМЕНА</t>
   </si>
@@ -527,9 +527,6 @@
     <t>Колбасина Д.А.</t>
   </si>
   <si>
-    <t>Труд (технология)</t>
-  </si>
-  <si>
     <t>Козлова Е.В.</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
       <t xml:space="preserve">
 14:50 - 15:30</t>
     </r>
+  </si>
+  <si>
+    <t>Труд (технология)</t>
   </si>
   <si>
     <t>Водорацкая Г.А.
@@ -4909,7 +4909,7 @@
   <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AE10"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5327,9 +5327,7 @@
       <c r="V5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="W5" s="38" t="s">
-        <v>90</v>
-      </c>
+      <c r="W5" s="38"/>
       <c r="X5" s="24" t="s">
         <v>86</v>
       </c>
@@ -5340,9 +5338,7 @@
       <c r="AA5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="AB5" s="18"/>
       <c r="AC5" s="48" t="s">
         <v>48</v>
       </c>
@@ -5370,7 +5366,7 @@
         <v>19</v>
       </c>
       <c r="AM5" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN5" s="14" t="s">
         <v>18</v>
@@ -5393,13 +5389,13 @@
         <v>88</v>
       </c>
       <c r="AV5" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AW5" s="17" t="s">
         <v>60</v>
       </c>
       <c r="AX5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AY5" s="10"/>
       <c r="AZ5" s="11" t="s">
@@ -5419,7 +5415,7 @@
         <v>88</v>
       </c>
       <c r="BF5" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG5" s="81"/>
       <c r="BH5" s="82" t="s">
@@ -5429,7 +5425,7 @@
     <row r="6" ht="140.25" spans="1:60">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>22</v>
@@ -5442,10 +5438,10 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="I6" s="24" t="s">
         <v>86</v>
@@ -5455,7 +5451,7 @@
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>25</v>
@@ -5468,7 +5464,7 @@
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" s="16" t="s">
         <v>19</v>
@@ -5481,7 +5477,7 @@
       </c>
       <c r="U6" s="10"/>
       <c r="V6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W6" s="18" t="s">
         <v>16</v>
@@ -5494,11 +5490,9 @@
       </c>
       <c r="Z6" s="10"/>
       <c r="AA6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB6" s="38" t="s">
-        <v>22</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AB6" s="38"/>
       <c r="AC6" s="24" t="s">
         <v>23</v>
       </c>
@@ -5507,7 +5501,7 @@
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AG6" s="16" t="s">
         <v>30</v>
@@ -5520,7 +5514,7 @@
       </c>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL6" s="38" t="s">
         <v>25</v>
@@ -5533,7 +5527,7 @@
       </c>
       <c r="AO6" s="10"/>
       <c r="AP6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ6" s="38" t="s">
         <v>25</v>
@@ -5546,7 +5540,7 @@
       </c>
       <c r="AT6" s="10"/>
       <c r="AU6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AV6" s="61" t="s">
         <v>33</v>
@@ -5559,7 +5553,7 @@
       </c>
       <c r="AY6" s="10"/>
       <c r="AZ6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BA6" s="59" t="s">
         <v>33</v>
@@ -5572,7 +5566,7 @@
       </c>
       <c r="BD6" s="10"/>
       <c r="BE6" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF6" s="61" t="s">
         <v>99</v>
@@ -5603,7 +5597,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>86</v>
@@ -5645,7 +5639,7 @@
         <v>19</v>
       </c>
       <c r="X7" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="39" t="s">
         <v>18</v>
@@ -5980,7 +5974,7 @@
         <v>110</v>
       </c>
       <c r="AG9" s="38" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AH9" s="34" t="s">
         <v>86</v>
